--- a/src/main/resources/excel/product.xlsx
+++ b/src/main/resources/excel/product.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
   <si>
     <t>23234</t>
   </si>
@@ -30,6 +30,27 @@
   </si>
   <si>
     <t>89.56</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>nokia</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>PROD-2212</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>PROD-222</t>
   </si>
 </sst>
 </file>
@@ -82,13 +103,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -104,24 +125,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -137,34 +158,78 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
